--- a/_data/DOGEUSDT_30m.xlsx
+++ b/_data/DOGEUSDT_30m.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1670"/>
+  <dimension ref="A1:F1928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33801,6 +33801,5166 @@
         <v>12093582</v>
       </c>
     </row>
+    <row r="1671" spans="1:6">
+      <c r="A1671" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1671">
+        <v>0.10162</v>
+      </c>
+      <c r="C1671">
+        <v>0.10178</v>
+      </c>
+      <c r="D1671">
+        <v>0.10139</v>
+      </c>
+      <c r="E1671">
+        <v>0.10156</v>
+      </c>
+      <c r="F1671">
+        <v>4755972</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6">
+      <c r="A1672" s="2">
+        <v>45534.47916666666</v>
+      </c>
+      <c r="B1672">
+        <v>0.10156</v>
+      </c>
+      <c r="C1672">
+        <v>0.10171</v>
+      </c>
+      <c r="D1672">
+        <v>0.10108</v>
+      </c>
+      <c r="E1672">
+        <v>0.10131</v>
+      </c>
+      <c r="F1672">
+        <v>7159414</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6">
+      <c r="A1673" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1673">
+        <v>0.10131</v>
+      </c>
+      <c r="C1673">
+        <v>0.102</v>
+      </c>
+      <c r="D1673">
+        <v>0.10119</v>
+      </c>
+      <c r="E1673">
+        <v>0.10187</v>
+      </c>
+      <c r="F1673">
+        <v>10725524</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6">
+      <c r="A1674" s="2">
+        <v>45534.52083333334</v>
+      </c>
+      <c r="B1674">
+        <v>0.10188</v>
+      </c>
+      <c r="C1674">
+        <v>0.10249</v>
+      </c>
+      <c r="D1674">
+        <v>0.10143</v>
+      </c>
+      <c r="E1674">
+        <v>0.10167</v>
+      </c>
+      <c r="F1674">
+        <v>17124150</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6">
+      <c r="A1675" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1675">
+        <v>0.10167</v>
+      </c>
+      <c r="C1675">
+        <v>0.10178</v>
+      </c>
+      <c r="D1675">
+        <v>0.10134</v>
+      </c>
+      <c r="E1675">
+        <v>0.10166</v>
+      </c>
+      <c r="F1675">
+        <v>5153419</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="B1676">
+        <v>0.10167</v>
+      </c>
+      <c r="C1676">
+        <v>0.10175</v>
+      </c>
+      <c r="D1676">
+        <v>0.10003</v>
+      </c>
+      <c r="E1676">
+        <v>0.10115</v>
+      </c>
+      <c r="F1676">
+        <v>18625848</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1677">
+        <v>0.10115</v>
+      </c>
+      <c r="C1677">
+        <v>0.10165</v>
+      </c>
+      <c r="D1677">
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="E1677">
+        <v>0.10055</v>
+      </c>
+      <c r="F1677">
+        <v>18237123</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6">
+      <c r="A1678" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="B1678">
+        <v>0.10055</v>
+      </c>
+      <c r="C1678">
+        <v>0.1006</v>
+      </c>
+      <c r="D1678">
+        <v>0.09905</v>
+      </c>
+      <c r="E1678">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="F1678">
+        <v>24991145</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6">
+      <c r="A1679" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1679">
+        <v>0.09909</v>
+      </c>
+      <c r="C1679">
+        <v>0.09947</v>
+      </c>
+      <c r="D1679">
+        <v>0.09805999999999999</v>
+      </c>
+      <c r="E1679">
+        <v>0.09862</v>
+      </c>
+      <c r="F1679">
+        <v>39104647</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6">
+      <c r="A1680" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="B1680">
+        <v>0.09862</v>
+      </c>
+      <c r="C1680">
+        <v>0.09898999999999999</v>
+      </c>
+      <c r="D1680">
+        <v>0.09811</v>
+      </c>
+      <c r="E1680">
+        <v>0.09848</v>
+      </c>
+      <c r="F1680">
+        <v>19724755</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6">
+      <c r="A1681" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1681">
+        <v>0.09848999999999999</v>
+      </c>
+      <c r="C1681">
+        <v>0.09923999999999999</v>
+      </c>
+      <c r="D1681">
+        <v>0.09697</v>
+      </c>
+      <c r="E1681">
+        <v>0.09779</v>
+      </c>
+      <c r="F1681">
+        <v>47183561</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="2">
+        <v>45534.6875</v>
+      </c>
+      <c r="B1682">
+        <v>0.0978</v>
+      </c>
+      <c r="C1682">
+        <v>0.09882000000000001</v>
+      </c>
+      <c r="D1682">
+        <v>0.09754</v>
+      </c>
+      <c r="E1682">
+        <v>0.09873999999999999</v>
+      </c>
+      <c r="F1682">
+        <v>14443326</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1683">
+        <v>0.09873</v>
+      </c>
+      <c r="C1683">
+        <v>0.09934</v>
+      </c>
+      <c r="D1683">
+        <v>0.09841</v>
+      </c>
+      <c r="E1683">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="F1683">
+        <v>11418251</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6">
+      <c r="A1684" s="2">
+        <v>45534.72916666666</v>
+      </c>
+      <c r="B1684">
+        <v>0.09911</v>
+      </c>
+      <c r="C1684">
+        <v>0.09948</v>
+      </c>
+      <c r="D1684">
+        <v>0.09868</v>
+      </c>
+      <c r="E1684">
+        <v>0.09905</v>
+      </c>
+      <c r="F1684">
+        <v>8854380</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6">
+      <c r="A1685" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1685">
+        <v>0.09905</v>
+      </c>
+      <c r="C1685">
+        <v>0.10049</v>
+      </c>
+      <c r="D1685">
+        <v>0.09901</v>
+      </c>
+      <c r="E1685">
+        <v>0.10049</v>
+      </c>
+      <c r="F1685">
+        <v>15245620</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6">
+      <c r="A1686" s="2">
+        <v>45534.77083333334</v>
+      </c>
+      <c r="B1686">
+        <v>0.10048</v>
+      </c>
+      <c r="C1686">
+        <v>0.10167</v>
+      </c>
+      <c r="D1686">
+        <v>0.10014</v>
+      </c>
+      <c r="E1686">
+        <v>0.10095</v>
+      </c>
+      <c r="F1686">
+        <v>36525904</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6">
+      <c r="A1687" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1687">
+        <v>0.10095</v>
+      </c>
+      <c r="C1687">
+        <v>0.10096</v>
+      </c>
+      <c r="D1687">
+        <v>0.10018</v>
+      </c>
+      <c r="E1687">
+        <v>0.10051</v>
+      </c>
+      <c r="F1687">
+        <v>6882422</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="2">
+        <v>45534.8125</v>
+      </c>
+      <c r="B1688">
+        <v>0.10052</v>
+      </c>
+      <c r="C1688">
+        <v>0.10057</v>
+      </c>
+      <c r="D1688">
+        <v>0.09995999999999999</v>
+      </c>
+      <c r="E1688">
+        <v>0.10016</v>
+      </c>
+      <c r="F1688">
+        <v>6654540</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1689">
+        <v>0.10016</v>
+      </c>
+      <c r="C1689">
+        <v>0.10046</v>
+      </c>
+      <c r="D1689">
+        <v>0.10012</v>
+      </c>
+      <c r="E1689">
+        <v>0.10036</v>
+      </c>
+      <c r="F1689">
+        <v>6634685</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="2">
+        <v>45534.85416666666</v>
+      </c>
+      <c r="B1690">
+        <v>0.10036</v>
+      </c>
+      <c r="C1690">
+        <v>0.1007</v>
+      </c>
+      <c r="D1690">
+        <v>0.10025</v>
+      </c>
+      <c r="E1690">
+        <v>0.10067</v>
+      </c>
+      <c r="F1690">
+        <v>3742520</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6">
+      <c r="A1691" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1691">
+        <v>0.10067</v>
+      </c>
+      <c r="C1691">
+        <v>0.10104</v>
+      </c>
+      <c r="D1691">
+        <v>0.10056</v>
+      </c>
+      <c r="E1691">
+        <v>0.10099</v>
+      </c>
+      <c r="F1691">
+        <v>10135140</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6">
+      <c r="A1692" s="2">
+        <v>45534.89583333334</v>
+      </c>
+      <c r="B1692">
+        <v>0.10099</v>
+      </c>
+      <c r="C1692">
+        <v>0.10105</v>
+      </c>
+      <c r="D1692">
+        <v>0.10079</v>
+      </c>
+      <c r="E1692">
+        <v>0.10085</v>
+      </c>
+      <c r="F1692">
+        <v>4061291</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6">
+      <c r="A1693" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1693">
+        <v>0.10086</v>
+      </c>
+      <c r="C1693">
+        <v>0.10124</v>
+      </c>
+      <c r="D1693">
+        <v>0.10085</v>
+      </c>
+      <c r="E1693">
+        <v>0.1012</v>
+      </c>
+      <c r="F1693">
+        <v>6016250</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6">
+      <c r="A1694" s="2">
+        <v>45534.9375</v>
+      </c>
+      <c r="B1694">
+        <v>0.10119</v>
+      </c>
+      <c r="C1694">
+        <v>0.10167</v>
+      </c>
+      <c r="D1694">
+        <v>0.10104</v>
+      </c>
+      <c r="E1694">
+        <v>0.10139</v>
+      </c>
+      <c r="F1694">
+        <v>10156330</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1695">
+        <v>0.10139</v>
+      </c>
+      <c r="C1695">
+        <v>0.10157</v>
+      </c>
+      <c r="D1695">
+        <v>0.101</v>
+      </c>
+      <c r="E1695">
+        <v>0.10148</v>
+      </c>
+      <c r="F1695">
+        <v>8354557</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="2">
+        <v>45534.97916666666</v>
+      </c>
+      <c r="B1696">
+        <v>0.10147</v>
+      </c>
+      <c r="C1696">
+        <v>0.10315</v>
+      </c>
+      <c r="D1696">
+        <v>0.1012</v>
+      </c>
+      <c r="E1696">
+        <v>0.10177</v>
+      </c>
+      <c r="F1696">
+        <v>58545147</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6">
+      <c r="A1697" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1697">
+        <v>0.10177</v>
+      </c>
+      <c r="C1697">
+        <v>0.10227</v>
+      </c>
+      <c r="D1697">
+        <v>0.10132</v>
+      </c>
+      <c r="E1697">
+        <v>0.10198</v>
+      </c>
+      <c r="F1697">
+        <v>43168033</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6">
+      <c r="A1698" s="2">
+        <v>45535.02083333334</v>
+      </c>
+      <c r="B1698">
+        <v>0.10198</v>
+      </c>
+      <c r="C1698">
+        <v>0.10239</v>
+      </c>
+      <c r="D1698">
+        <v>0.10177</v>
+      </c>
+      <c r="E1698">
+        <v>0.102</v>
+      </c>
+      <c r="F1698">
+        <v>24601858</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6">
+      <c r="A1699" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1699">
+        <v>0.102</v>
+      </c>
+      <c r="C1699">
+        <v>0.10212</v>
+      </c>
+      <c r="D1699">
+        <v>0.1016</v>
+      </c>
+      <c r="E1699">
+        <v>0.10168</v>
+      </c>
+      <c r="F1699">
+        <v>2948659</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6">
+      <c r="A1700" s="2">
+        <v>45535.0625</v>
+      </c>
+      <c r="B1700">
+        <v>0.10158</v>
+      </c>
+      <c r="C1700">
+        <v>0.10167</v>
+      </c>
+      <c r="D1700">
+        <v>0.10123</v>
+      </c>
+      <c r="E1700">
+        <v>0.10136</v>
+      </c>
+      <c r="F1700">
+        <v>4478389</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1701">
+        <v>0.10137</v>
+      </c>
+      <c r="C1701">
+        <v>0.10142</v>
+      </c>
+      <c r="D1701">
+        <v>0.10087</v>
+      </c>
+      <c r="E1701">
+        <v>0.1011</v>
+      </c>
+      <c r="F1701">
+        <v>8174758</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="2">
+        <v>45535.10416666666</v>
+      </c>
+      <c r="B1702">
+        <v>0.1011</v>
+      </c>
+      <c r="C1702">
+        <v>0.1012</v>
+      </c>
+      <c r="D1702">
+        <v>0.10089</v>
+      </c>
+      <c r="E1702">
+        <v>0.10113</v>
+      </c>
+      <c r="F1702">
+        <v>5435930</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6">
+      <c r="A1703" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1703">
+        <v>0.10114</v>
+      </c>
+      <c r="C1703">
+        <v>0.10135</v>
+      </c>
+      <c r="D1703">
+        <v>0.10101</v>
+      </c>
+      <c r="E1703">
+        <v>0.1013</v>
+      </c>
+      <c r="F1703">
+        <v>2101975</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6">
+      <c r="A1704" s="2">
+        <v>45535.14583333334</v>
+      </c>
+      <c r="B1704">
+        <v>0.1013</v>
+      </c>
+      <c r="C1704">
+        <v>0.1015</v>
+      </c>
+      <c r="D1704">
+        <v>0.10116</v>
+      </c>
+      <c r="E1704">
+        <v>0.10126</v>
+      </c>
+      <c r="F1704">
+        <v>1415622</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6">
+      <c r="A1705" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1705">
+        <v>0.10127</v>
+      </c>
+      <c r="C1705">
+        <v>0.10166</v>
+      </c>
+      <c r="D1705">
+        <v>0.10126</v>
+      </c>
+      <c r="E1705">
+        <v>0.10164</v>
+      </c>
+      <c r="F1705">
+        <v>2398295</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6">
+      <c r="A1706" s="2">
+        <v>45535.1875</v>
+      </c>
+      <c r="B1706">
+        <v>0.10164</v>
+      </c>
+      <c r="C1706">
+        <v>0.10171</v>
+      </c>
+      <c r="D1706">
+        <v>0.10147</v>
+      </c>
+      <c r="E1706">
+        <v>0.10166</v>
+      </c>
+      <c r="F1706">
+        <v>1578740</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1707">
+        <v>0.10166</v>
+      </c>
+      <c r="C1707">
+        <v>0.10176</v>
+      </c>
+      <c r="D1707">
+        <v>0.10162</v>
+      </c>
+      <c r="E1707">
+        <v>0.10172</v>
+      </c>
+      <c r="F1707">
+        <v>2609038</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="2">
+        <v>45535.22916666666</v>
+      </c>
+      <c r="B1708">
+        <v>0.10171</v>
+      </c>
+      <c r="C1708">
+        <v>0.10192</v>
+      </c>
+      <c r="D1708">
+        <v>0.10138</v>
+      </c>
+      <c r="E1708">
+        <v>0.10139</v>
+      </c>
+      <c r="F1708">
+        <v>1905389</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1709">
+        <v>0.1014</v>
+      </c>
+      <c r="C1709">
+        <v>0.10168</v>
+      </c>
+      <c r="D1709">
+        <v>0.10133</v>
+      </c>
+      <c r="E1709">
+        <v>0.10159</v>
+      </c>
+      <c r="F1709">
+        <v>2361564</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6">
+      <c r="A1710" s="2">
+        <v>45535.27083333334</v>
+      </c>
+      <c r="B1710">
+        <v>0.10159</v>
+      </c>
+      <c r="C1710">
+        <v>0.10171</v>
+      </c>
+      <c r="D1710">
+        <v>0.1015</v>
+      </c>
+      <c r="E1710">
+        <v>0.10156</v>
+      </c>
+      <c r="F1710">
+        <v>1942538</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6">
+      <c r="A1711" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1711">
+        <v>0.10157</v>
+      </c>
+      <c r="C1711">
+        <v>0.10163</v>
+      </c>
+      <c r="D1711">
+        <v>0.10097</v>
+      </c>
+      <c r="E1711">
+        <v>0.10103</v>
+      </c>
+      <c r="F1711">
+        <v>12351520</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6">
+      <c r="A1712" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="B1712">
+        <v>0.10104</v>
+      </c>
+      <c r="C1712">
+        <v>0.10129</v>
+      </c>
+      <c r="D1712">
+        <v>0.10104</v>
+      </c>
+      <c r="E1712">
+        <v>0.10111</v>
+      </c>
+      <c r="F1712">
+        <v>2763378</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6">
+      <c r="A1713" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1713">
+        <v>0.10111</v>
+      </c>
+      <c r="C1713">
+        <v>0.10126</v>
+      </c>
+      <c r="D1713">
+        <v>0.10092</v>
+      </c>
+      <c r="E1713">
+        <v>0.101</v>
+      </c>
+      <c r="F1713">
+        <v>2302571</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6">
+      <c r="A1714" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="B1714">
+        <v>0.101</v>
+      </c>
+      <c r="C1714">
+        <v>0.10115</v>
+      </c>
+      <c r="D1714">
+        <v>0.10059</v>
+      </c>
+      <c r="E1714">
+        <v>0.10062</v>
+      </c>
+      <c r="F1714">
+        <v>6689231</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6">
+      <c r="A1715" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1715">
+        <v>0.10062</v>
+      </c>
+      <c r="C1715">
+        <v>0.10092</v>
+      </c>
+      <c r="D1715">
+        <v>0.10035</v>
+      </c>
+      <c r="E1715">
+        <v>0.10062</v>
+      </c>
+      <c r="F1715">
+        <v>5168160</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="B1716">
+        <v>0.10062</v>
+      </c>
+      <c r="C1716">
+        <v>0.10081</v>
+      </c>
+      <c r="D1716">
+        <v>0.10048</v>
+      </c>
+      <c r="E1716">
+        <v>0.10069</v>
+      </c>
+      <c r="F1716">
+        <v>4329049</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6">
+      <c r="A1717" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1717">
+        <v>0.1007</v>
+      </c>
+      <c r="C1717">
+        <v>0.1013</v>
+      </c>
+      <c r="D1717">
+        <v>0.10055</v>
+      </c>
+      <c r="E1717">
+        <v>0.10112</v>
+      </c>
+      <c r="F1717">
+        <v>5162141</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6">
+      <c r="A1718" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="B1718">
+        <v>0.10113</v>
+      </c>
+      <c r="C1718">
+        <v>0.10145</v>
+      </c>
+      <c r="D1718">
+        <v>0.10113</v>
+      </c>
+      <c r="E1718">
+        <v>0.1014</v>
+      </c>
+      <c r="F1718">
+        <v>2113421</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6">
+      <c r="A1719" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1719">
+        <v>0.1014</v>
+      </c>
+      <c r="C1719">
+        <v>0.10152</v>
+      </c>
+      <c r="D1719">
+        <v>0.10125</v>
+      </c>
+      <c r="E1719">
+        <v>0.10131</v>
+      </c>
+      <c r="F1719">
+        <v>4582118</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6">
+      <c r="A1720" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="B1720">
+        <v>0.10131</v>
+      </c>
+      <c r="C1720">
+        <v>0.10144</v>
+      </c>
+      <c r="D1720">
+        <v>0.10122</v>
+      </c>
+      <c r="E1720">
+        <v>0.10125</v>
+      </c>
+      <c r="F1720">
+        <v>3158269</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1721">
+        <v>0.10125</v>
+      </c>
+      <c r="C1721">
+        <v>0.10146</v>
+      </c>
+      <c r="D1721">
+        <v>0.10103</v>
+      </c>
+      <c r="E1721">
+        <v>0.1013</v>
+      </c>
+      <c r="F1721">
+        <v>4982805</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="B1722">
+        <v>0.1013</v>
+      </c>
+      <c r="C1722">
+        <v>0.10145</v>
+      </c>
+      <c r="D1722">
+        <v>0.10117</v>
+      </c>
+      <c r="E1722">
+        <v>0.10137</v>
+      </c>
+      <c r="F1722">
+        <v>2127458</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1723">
+        <v>0.10137</v>
+      </c>
+      <c r="C1723">
+        <v>0.10145</v>
+      </c>
+      <c r="D1723">
+        <v>0.10122</v>
+      </c>
+      <c r="E1723">
+        <v>0.10129</v>
+      </c>
+      <c r="F1723">
+        <v>2012404</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6">
+      <c r="A1724" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="B1724">
+        <v>0.10129</v>
+      </c>
+      <c r="C1724">
+        <v>0.10152</v>
+      </c>
+      <c r="D1724">
+        <v>0.1008</v>
+      </c>
+      <c r="E1724">
+        <v>0.10084</v>
+      </c>
+      <c r="F1724">
+        <v>5128463</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6">
+      <c r="A1725" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1725">
+        <v>0.10083</v>
+      </c>
+      <c r="C1725">
+        <v>0.10122</v>
+      </c>
+      <c r="D1725">
+        <v>0.10076</v>
+      </c>
+      <c r="E1725">
+        <v>0.1012</v>
+      </c>
+      <c r="F1725">
+        <v>5791913</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6">
+      <c r="A1726" s="2">
+        <v>45535.60416666666</v>
+      </c>
+      <c r="B1726">
+        <v>0.1012</v>
+      </c>
+      <c r="C1726">
+        <v>0.10142</v>
+      </c>
+      <c r="D1726">
+        <v>0.10101</v>
+      </c>
+      <c r="E1726">
+        <v>0.10131</v>
+      </c>
+      <c r="F1726">
+        <v>2451755</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6">
+      <c r="A1727" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1727">
+        <v>0.1013</v>
+      </c>
+      <c r="C1727">
+        <v>0.10158</v>
+      </c>
+      <c r="D1727">
+        <v>0.10129</v>
+      </c>
+      <c r="E1727">
+        <v>0.10132</v>
+      </c>
+      <c r="F1727">
+        <v>5954834</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6">
+      <c r="A1728" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="B1728">
+        <v>0.10132</v>
+      </c>
+      <c r="C1728">
+        <v>0.10166</v>
+      </c>
+      <c r="D1728">
+        <v>0.10118</v>
+      </c>
+      <c r="E1728">
+        <v>0.10163</v>
+      </c>
+      <c r="F1728">
+        <v>4964230</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1729">
+        <v>0.10164</v>
+      </c>
+      <c r="C1729">
+        <v>0.10165</v>
+      </c>
+      <c r="D1729">
+        <v>0.10115</v>
+      </c>
+      <c r="E1729">
+        <v>0.10133</v>
+      </c>
+      <c r="F1729">
+        <v>2208268</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="B1730">
+        <v>0.10132</v>
+      </c>
+      <c r="C1730">
+        <v>0.10135</v>
+      </c>
+      <c r="D1730">
+        <v>0.1008</v>
+      </c>
+      <c r="E1730">
+        <v>0.10105</v>
+      </c>
+      <c r="F1730">
+        <v>4266686</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1731">
+        <v>0.10104</v>
+      </c>
+      <c r="C1731">
+        <v>0.10116</v>
+      </c>
+      <c r="D1731">
+        <v>0.10055</v>
+      </c>
+      <c r="E1731">
+        <v>0.10098</v>
+      </c>
+      <c r="F1731">
+        <v>8139740</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="2">
+        <v>45535.72916666666</v>
+      </c>
+      <c r="B1732">
+        <v>0.10097</v>
+      </c>
+      <c r="C1732">
+        <v>0.10138</v>
+      </c>
+      <c r="D1732">
+        <v>0.10063</v>
+      </c>
+      <c r="E1732">
+        <v>0.1013</v>
+      </c>
+      <c r="F1732">
+        <v>4952282</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1733">
+        <v>0.10131</v>
+      </c>
+      <c r="C1733">
+        <v>0.10196</v>
+      </c>
+      <c r="D1733">
+        <v>0.10129</v>
+      </c>
+      <c r="E1733">
+        <v>0.10188</v>
+      </c>
+      <c r="F1733">
+        <v>5125063</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6">
+      <c r="A1734" s="2">
+        <v>45535.77083333334</v>
+      </c>
+      <c r="B1734">
+        <v>0.10219</v>
+      </c>
+      <c r="C1734">
+        <v>0.10231</v>
+      </c>
+      <c r="D1734">
+        <v>0.1015</v>
+      </c>
+      <c r="E1734">
+        <v>0.1015</v>
+      </c>
+      <c r="F1734">
+        <v>11552792</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6">
+      <c r="A1735" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1735">
+        <v>0.10149</v>
+      </c>
+      <c r="C1735">
+        <v>0.10171</v>
+      </c>
+      <c r="D1735">
+        <v>0.10124</v>
+      </c>
+      <c r="E1735">
+        <v>0.10127</v>
+      </c>
+      <c r="F1735">
+        <v>4527265</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6">
+      <c r="A1736" s="2">
+        <v>45535.8125</v>
+      </c>
+      <c r="B1736">
+        <v>0.10127</v>
+      </c>
+      <c r="C1736">
+        <v>0.10139</v>
+      </c>
+      <c r="D1736">
+        <v>0.10105</v>
+      </c>
+      <c r="E1736">
+        <v>0.10106</v>
+      </c>
+      <c r="F1736">
+        <v>3186001</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1737">
+        <v>0.10106</v>
+      </c>
+      <c r="C1737">
+        <v>0.10129</v>
+      </c>
+      <c r="D1737">
+        <v>0.10091</v>
+      </c>
+      <c r="E1737">
+        <v>0.10096</v>
+      </c>
+      <c r="F1737">
+        <v>7102767</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="2">
+        <v>45535.85416666666</v>
+      </c>
+      <c r="B1738">
+        <v>0.10097</v>
+      </c>
+      <c r="C1738">
+        <v>0.10145</v>
+      </c>
+      <c r="D1738">
+        <v>0.10096</v>
+      </c>
+      <c r="E1738">
+        <v>0.10123</v>
+      </c>
+      <c r="F1738">
+        <v>2951206</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1739">
+        <v>0.10124</v>
+      </c>
+      <c r="C1739">
+        <v>0.10142</v>
+      </c>
+      <c r="D1739">
+        <v>0.10118</v>
+      </c>
+      <c r="E1739">
+        <v>0.10134</v>
+      </c>
+      <c r="F1739">
+        <v>1534241</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" s="2">
+        <v>45535.89583333334</v>
+      </c>
+      <c r="B1740">
+        <v>0.10137</v>
+      </c>
+      <c r="C1740">
+        <v>0.10137</v>
+      </c>
+      <c r="D1740">
+        <v>0.10134</v>
+      </c>
+      <c r="E1740">
+        <v>0.10135</v>
+      </c>
+      <c r="F1740">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1741">
+        <v>0.10157</v>
+      </c>
+      <c r="C1741">
+        <v>0.10172</v>
+      </c>
+      <c r="D1741">
+        <v>0.10136</v>
+      </c>
+      <c r="E1741">
+        <v>0.10141</v>
+      </c>
+      <c r="F1741">
+        <v>1512456</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" s="2">
+        <v>45535.9375</v>
+      </c>
+      <c r="B1742">
+        <v>0.1014</v>
+      </c>
+      <c r="C1742">
+        <v>0.10153</v>
+      </c>
+      <c r="D1742">
+        <v>0.10128</v>
+      </c>
+      <c r="E1742">
+        <v>0.1013</v>
+      </c>
+      <c r="F1742">
+        <v>1220859</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1743">
+        <v>0.10131</v>
+      </c>
+      <c r="C1743">
+        <v>0.10142</v>
+      </c>
+      <c r="D1743">
+        <v>0.10111</v>
+      </c>
+      <c r="E1743">
+        <v>0.1013</v>
+      </c>
+      <c r="F1743">
+        <v>1470661</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" s="2">
+        <v>45535.97916666666</v>
+      </c>
+      <c r="B1744">
+        <v>0.1013</v>
+      </c>
+      <c r="C1744">
+        <v>0.1013</v>
+      </c>
+      <c r="D1744">
+        <v>0.10126</v>
+      </c>
+      <c r="E1744">
+        <v>0.10128</v>
+      </c>
+      <c r="F1744">
+        <v>14317</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1745">
+        <v>0.10128</v>
+      </c>
+      <c r="C1745">
+        <v>0.10153</v>
+      </c>
+      <c r="D1745">
+        <v>0.10102</v>
+      </c>
+      <c r="E1745">
+        <v>0.1011</v>
+      </c>
+      <c r="F1745">
+        <v>2516646</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" s="2">
+        <v>45536.02083333334</v>
+      </c>
+      <c r="B1746">
+        <v>0.1011</v>
+      </c>
+      <c r="C1746">
+        <v>0.10122</v>
+      </c>
+      <c r="D1746">
+        <v>0.10101</v>
+      </c>
+      <c r="E1746">
+        <v>0.10112</v>
+      </c>
+      <c r="F1746">
+        <v>3756485</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1747">
+        <v>0.10111</v>
+      </c>
+      <c r="C1747">
+        <v>0.10125</v>
+      </c>
+      <c r="D1747">
+        <v>0.10092</v>
+      </c>
+      <c r="E1747">
+        <v>0.10095</v>
+      </c>
+      <c r="F1747">
+        <v>1588869</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" s="2">
+        <v>45536.0625</v>
+      </c>
+      <c r="B1748">
+        <v>0.10094</v>
+      </c>
+      <c r="C1748">
+        <v>0.10099</v>
+      </c>
+      <c r="D1748">
+        <v>0.10035</v>
+      </c>
+      <c r="E1748">
+        <v>0.10042</v>
+      </c>
+      <c r="F1748">
+        <v>5298157</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1749">
+        <v>0.10043</v>
+      </c>
+      <c r="C1749">
+        <v>0.1005</v>
+      </c>
+      <c r="D1749">
+        <v>0.09974</v>
+      </c>
+      <c r="E1749">
+        <v>0.0999</v>
+      </c>
+      <c r="F1749">
+        <v>10745007</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" s="2">
+        <v>45536.10416666666</v>
+      </c>
+      <c r="B1750">
+        <v>0.0999</v>
+      </c>
+      <c r="C1750">
+        <v>0.10054</v>
+      </c>
+      <c r="D1750">
+        <v>0.09982000000000001</v>
+      </c>
+      <c r="E1750">
+        <v>0.10053</v>
+      </c>
+      <c r="F1750">
+        <v>3592384</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1751">
+        <v>0.10054</v>
+      </c>
+      <c r="C1751">
+        <v>0.1007</v>
+      </c>
+      <c r="D1751">
+        <v>0.10039</v>
+      </c>
+      <c r="E1751">
+        <v>0.10062</v>
+      </c>
+      <c r="F1751">
+        <v>1732292</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="2">
+        <v>45536.14583333334</v>
+      </c>
+      <c r="B1752">
+        <v>0.10061</v>
+      </c>
+      <c r="C1752">
+        <v>0.10063</v>
+      </c>
+      <c r="D1752">
+        <v>0.10027</v>
+      </c>
+      <c r="E1752">
+        <v>0.10028</v>
+      </c>
+      <c r="F1752">
+        <v>1700822</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1753">
+        <v>0.10027</v>
+      </c>
+      <c r="C1753">
+        <v>0.10028</v>
+      </c>
+      <c r="D1753">
+        <v>0.09984</v>
+      </c>
+      <c r="E1753">
+        <v>0.10009</v>
+      </c>
+      <c r="F1753">
+        <v>5637887</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" s="2">
+        <v>45536.1875</v>
+      </c>
+      <c r="B1754">
+        <v>0.10009</v>
+      </c>
+      <c r="C1754">
+        <v>0.10021</v>
+      </c>
+      <c r="D1754">
+        <v>0.09981</v>
+      </c>
+      <c r="E1754">
+        <v>0.1</v>
+      </c>
+      <c r="F1754">
+        <v>6348095</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6">
+      <c r="A1755" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1755">
+        <v>0.1</v>
+      </c>
+      <c r="C1755">
+        <v>0.1001</v>
+      </c>
+      <c r="D1755">
+        <v>0.09925</v>
+      </c>
+      <c r="E1755">
+        <v>0.09970999999999999</v>
+      </c>
+      <c r="F1755">
+        <v>11228448</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" s="2">
+        <v>45536.22916666666</v>
+      </c>
+      <c r="B1756">
+        <v>0.09970999999999999</v>
+      </c>
+      <c r="C1756">
+        <v>0.09972</v>
+      </c>
+      <c r="D1756">
+        <v>0.0985</v>
+      </c>
+      <c r="E1756">
+        <v>0.0987</v>
+      </c>
+      <c r="F1756">
+        <v>14846193</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1757">
+        <v>0.0987</v>
+      </c>
+      <c r="C1757">
+        <v>0.09929</v>
+      </c>
+      <c r="D1757">
+        <v>0.09861</v>
+      </c>
+      <c r="E1757">
+        <v>0.09929</v>
+      </c>
+      <c r="F1757">
+        <v>5386139</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" s="2">
+        <v>45536.27083333334</v>
+      </c>
+      <c r="B1758">
+        <v>0.09929</v>
+      </c>
+      <c r="C1758">
+        <v>0.09950000000000001</v>
+      </c>
+      <c r="D1758">
+        <v>0.09914000000000001</v>
+      </c>
+      <c r="E1758">
+        <v>0.09926</v>
+      </c>
+      <c r="F1758">
+        <v>4341854</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1759">
+        <v>0.09925</v>
+      </c>
+      <c r="C1759">
+        <v>0.09941999999999999</v>
+      </c>
+      <c r="D1759">
+        <v>0.09905</v>
+      </c>
+      <c r="E1759">
+        <v>0.09919</v>
+      </c>
+      <c r="F1759">
+        <v>5388093</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="2">
+        <v>45536.3125</v>
+      </c>
+      <c r="B1760">
+        <v>0.09919</v>
+      </c>
+      <c r="C1760">
+        <v>0.09975000000000001</v>
+      </c>
+      <c r="D1760">
+        <v>0.09919</v>
+      </c>
+      <c r="E1760">
+        <v>0.09975000000000001</v>
+      </c>
+      <c r="F1760">
+        <v>4387972</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1761">
+        <v>0.09974</v>
+      </c>
+      <c r="C1761">
+        <v>0.09984999999999999</v>
+      </c>
+      <c r="D1761">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="E1761">
+        <v>0.09962</v>
+      </c>
+      <c r="F1761">
+        <v>3186315</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="B1762">
+        <v>0.09962</v>
+      </c>
+      <c r="C1762">
+        <v>0.09969</v>
+      </c>
+      <c r="D1762">
+        <v>0.09943</v>
+      </c>
+      <c r="E1762">
+        <v>0.09951</v>
+      </c>
+      <c r="F1762">
+        <v>3866564</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6">
+      <c r="A1763" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1763">
+        <v>0.09951</v>
+      </c>
+      <c r="C1763">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="D1763">
+        <v>0.09931</v>
+      </c>
+      <c r="E1763">
+        <v>0.09949</v>
+      </c>
+      <c r="F1763">
+        <v>2783246</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6">
+      <c r="A1764" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="B1764">
+        <v>0.09948</v>
+      </c>
+      <c r="C1764">
+        <v>0.09977999999999999</v>
+      </c>
+      <c r="D1764">
+        <v>0.0994</v>
+      </c>
+      <c r="E1764">
+        <v>0.0994</v>
+      </c>
+      <c r="F1764">
+        <v>3776913</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1765">
+        <v>0.0994</v>
+      </c>
+      <c r="C1765">
+        <v>0.0994</v>
+      </c>
+      <c r="D1765">
+        <v>0.09883</v>
+      </c>
+      <c r="E1765">
+        <v>0.09895</v>
+      </c>
+      <c r="F1765">
+        <v>2844566</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="B1766">
+        <v>0.09896000000000001</v>
+      </c>
+      <c r="C1766">
+        <v>0.09915</v>
+      </c>
+      <c r="D1766">
+        <v>0.09879</v>
+      </c>
+      <c r="E1766">
+        <v>0.09887</v>
+      </c>
+      <c r="F1766">
+        <v>3501259</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1767">
+        <v>0.09888</v>
+      </c>
+      <c r="C1767">
+        <v>0.09925</v>
+      </c>
+      <c r="D1767">
+        <v>0.09863</v>
+      </c>
+      <c r="E1767">
+        <v>0.09919</v>
+      </c>
+      <c r="F1767">
+        <v>5114850</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="B1768">
+        <v>0.09919</v>
+      </c>
+      <c r="C1768">
+        <v>0.09939000000000001</v>
+      </c>
+      <c r="D1768">
+        <v>0.09904</v>
+      </c>
+      <c r="E1768">
+        <v>0.09936</v>
+      </c>
+      <c r="F1768">
+        <v>2960024</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1769">
+        <v>0.09936</v>
+      </c>
+      <c r="C1769">
+        <v>0.09944</v>
+      </c>
+      <c r="D1769">
+        <v>0.09889000000000001</v>
+      </c>
+      <c r="E1769">
+        <v>0.09891999999999999</v>
+      </c>
+      <c r="F1769">
+        <v>4915757</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="B1770">
+        <v>0.09891999999999999</v>
+      </c>
+      <c r="C1770">
+        <v>0.09908</v>
+      </c>
+      <c r="D1770">
+        <v>0.09858</v>
+      </c>
+      <c r="E1770">
+        <v>0.09873999999999999</v>
+      </c>
+      <c r="F1770">
+        <v>4599419</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1771">
+        <v>0.09875</v>
+      </c>
+      <c r="C1771">
+        <v>0.09922</v>
+      </c>
+      <c r="D1771">
+        <v>0.09871000000000001</v>
+      </c>
+      <c r="E1771">
+        <v>0.0988</v>
+      </c>
+      <c r="F1771">
+        <v>7103198</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="B1772">
+        <v>0.0988</v>
+      </c>
+      <c r="C1772">
+        <v>0.09898</v>
+      </c>
+      <c r="D1772">
+        <v>0.09807</v>
+      </c>
+      <c r="E1772">
+        <v>0.0987</v>
+      </c>
+      <c r="F1772">
+        <v>12823678</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1773">
+        <v>0.0987</v>
+      </c>
+      <c r="C1773">
+        <v>0.09872</v>
+      </c>
+      <c r="D1773">
+        <v>0.09726</v>
+      </c>
+      <c r="E1773">
+        <v>0.09748</v>
+      </c>
+      <c r="F1773">
+        <v>42117346</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" s="2">
+        <v>45536.60416666666</v>
+      </c>
+      <c r="B1774">
+        <v>0.09748</v>
+      </c>
+      <c r="C1774">
+        <v>0.09835000000000001</v>
+      </c>
+      <c r="D1774">
+        <v>0.09744</v>
+      </c>
+      <c r="E1774">
+        <v>0.09795</v>
+      </c>
+      <c r="F1774">
+        <v>7223287</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1775">
+        <v>0.09794</v>
+      </c>
+      <c r="C1775">
+        <v>0.09836</v>
+      </c>
+      <c r="D1775">
+        <v>0.0977</v>
+      </c>
+      <c r="E1775">
+        <v>0.09771000000000001</v>
+      </c>
+      <c r="F1775">
+        <v>14636154</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="B1776">
+        <v>0.09771000000000001</v>
+      </c>
+      <c r="C1776">
+        <v>0.09896000000000001</v>
+      </c>
+      <c r="D1776">
+        <v>0.0974</v>
+      </c>
+      <c r="E1776">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="F1776">
+        <v>19955296</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1777">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="C1777">
+        <v>0.09887</v>
+      </c>
+      <c r="D1777">
+        <v>0.09841</v>
+      </c>
+      <c r="E1777">
+        <v>0.09848</v>
+      </c>
+      <c r="F1777">
+        <v>6119509</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" s="2">
+        <v>45536.6875</v>
+      </c>
+      <c r="B1778">
+        <v>0.09794</v>
+      </c>
+      <c r="C1778">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="D1778">
+        <v>0.0975</v>
+      </c>
+      <c r="E1778">
+        <v>0.09771000000000001</v>
+      </c>
+      <c r="F1778">
+        <v>12305268</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1779">
+        <v>0.09771000000000001</v>
+      </c>
+      <c r="C1779">
+        <v>0.09773999999999999</v>
+      </c>
+      <c r="D1779">
+        <v>0.09767000000000001</v>
+      </c>
+      <c r="E1779">
+        <v>0.09771000000000001</v>
+      </c>
+      <c r="F1779">
+        <v>207744</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" s="2">
+        <v>45536.72916666666</v>
+      </c>
+      <c r="B1780">
+        <v>0.09715</v>
+      </c>
+      <c r="C1780">
+        <v>0.09747</v>
+      </c>
+      <c r="D1780">
+        <v>0.09687999999999999</v>
+      </c>
+      <c r="E1780">
+        <v>0.09742000000000001</v>
+      </c>
+      <c r="F1780">
+        <v>7236144</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1781">
+        <v>0.09741</v>
+      </c>
+      <c r="C1781">
+        <v>0.09888</v>
+      </c>
+      <c r="D1781">
+        <v>0.09728000000000001</v>
+      </c>
+      <c r="E1781">
+        <v>0.09855</v>
+      </c>
+      <c r="F1781">
+        <v>7392544</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" s="2">
+        <v>45536.77083333334</v>
+      </c>
+      <c r="B1782">
+        <v>0.09855</v>
+      </c>
+      <c r="C1782">
+        <v>0.09882000000000001</v>
+      </c>
+      <c r="D1782">
+        <v>0.09815</v>
+      </c>
+      <c r="E1782">
+        <v>0.09848</v>
+      </c>
+      <c r="F1782">
+        <v>6567789</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1783">
+        <v>0.0985</v>
+      </c>
+      <c r="C1783">
+        <v>0.09934</v>
+      </c>
+      <c r="D1783">
+        <v>0.0985</v>
+      </c>
+      <c r="E1783">
+        <v>0.0987</v>
+      </c>
+      <c r="F1783">
+        <v>20691362</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" s="2">
+        <v>45536.8125</v>
+      </c>
+      <c r="B1784">
+        <v>0.0987</v>
+      </c>
+      <c r="C1784">
+        <v>0.09916</v>
+      </c>
+      <c r="D1784">
+        <v>0.09861</v>
+      </c>
+      <c r="E1784">
+        <v>0.09913</v>
+      </c>
+      <c r="F1784">
+        <v>2513265</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1785">
+        <v>0.09912</v>
+      </c>
+      <c r="C1785">
+        <v>0.09952</v>
+      </c>
+      <c r="D1785">
+        <v>0.09909</v>
+      </c>
+      <c r="E1785">
+        <v>0.09946000000000001</v>
+      </c>
+      <c r="F1785">
+        <v>3793619</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="2">
+        <v>45536.85416666666</v>
+      </c>
+      <c r="B1786">
+        <v>0.09946000000000001</v>
+      </c>
+      <c r="C1786">
+        <v>0.09948</v>
+      </c>
+      <c r="D1786">
+        <v>0.09876</v>
+      </c>
+      <c r="E1786">
+        <v>0.09887</v>
+      </c>
+      <c r="F1786">
+        <v>2316443</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1787">
+        <v>0.09888</v>
+      </c>
+      <c r="C1787">
+        <v>0.09891</v>
+      </c>
+      <c r="D1787">
+        <v>0.098</v>
+      </c>
+      <c r="E1787">
+        <v>0.09805</v>
+      </c>
+      <c r="F1787">
+        <v>2405029</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" s="2">
+        <v>45536.89583333334</v>
+      </c>
+      <c r="B1788">
+        <v>0.09804</v>
+      </c>
+      <c r="C1788">
+        <v>0.09828000000000001</v>
+      </c>
+      <c r="D1788">
+        <v>0.0978</v>
+      </c>
+      <c r="E1788">
+        <v>0.09819</v>
+      </c>
+      <c r="F1788">
+        <v>3796137</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1789">
+        <v>0.09819</v>
+      </c>
+      <c r="C1789">
+        <v>0.09829</v>
+      </c>
+      <c r="D1789">
+        <v>0.09574000000000001</v>
+      </c>
+      <c r="E1789">
+        <v>0.09617000000000001</v>
+      </c>
+      <c r="F1789">
+        <v>24662235</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" s="2">
+        <v>45536.9375</v>
+      </c>
+      <c r="B1790">
+        <v>0.09618</v>
+      </c>
+      <c r="C1790">
+        <v>0.09619</v>
+      </c>
+      <c r="D1790">
+        <v>0.09388000000000001</v>
+      </c>
+      <c r="E1790">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="F1790">
+        <v>46066736</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1791">
+        <v>0.0944</v>
+      </c>
+      <c r="C1791">
+        <v>0.09558</v>
+      </c>
+      <c r="D1791">
+        <v>0.09422</v>
+      </c>
+      <c r="E1791">
+        <v>0.09538000000000001</v>
+      </c>
+      <c r="F1791">
+        <v>24506574</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" s="2">
+        <v>45536.97916666666</v>
+      </c>
+      <c r="B1792">
+        <v>0.09538000000000001</v>
+      </c>
+      <c r="C1792">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="D1792">
+        <v>0.09507</v>
+      </c>
+      <c r="E1792">
+        <v>0.09508999999999999</v>
+      </c>
+      <c r="F1792">
+        <v>13829401</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1793">
+        <v>0.09508</v>
+      </c>
+      <c r="C1793">
+        <v>0.09558</v>
+      </c>
+      <c r="D1793">
+        <v>0.09495000000000001</v>
+      </c>
+      <c r="E1793">
+        <v>0.09551999999999999</v>
+      </c>
+      <c r="F1793">
+        <v>15704795</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" s="2">
+        <v>45537.02083333334</v>
+      </c>
+      <c r="B1794">
+        <v>0.09553</v>
+      </c>
+      <c r="C1794">
+        <v>0.0959</v>
+      </c>
+      <c r="D1794">
+        <v>0.09501</v>
+      </c>
+      <c r="E1794">
+        <v>0.09558</v>
+      </c>
+      <c r="F1794">
+        <v>10261010</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1795">
+        <v>0.09558999999999999</v>
+      </c>
+      <c r="C1795">
+        <v>0.09606000000000001</v>
+      </c>
+      <c r="D1795">
+        <v>0.09531000000000001</v>
+      </c>
+      <c r="E1795">
+        <v>0.09566</v>
+      </c>
+      <c r="F1795">
+        <v>10414970</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" s="2">
+        <v>45537.0625</v>
+      </c>
+      <c r="B1796">
+        <v>0.09567000000000001</v>
+      </c>
+      <c r="C1796">
+        <v>0.09598</v>
+      </c>
+      <c r="D1796">
+        <v>0.09533</v>
+      </c>
+      <c r="E1796">
+        <v>0.09548</v>
+      </c>
+      <c r="F1796">
+        <v>7720495</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1797">
+        <v>0.09548</v>
+      </c>
+      <c r="C1797">
+        <v>0.09593</v>
+      </c>
+      <c r="D1797">
+        <v>0.09537</v>
+      </c>
+      <c r="E1797">
+        <v>0.09554</v>
+      </c>
+      <c r="F1797">
+        <v>7692641</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="2">
+        <v>45537.10416666666</v>
+      </c>
+      <c r="B1798">
+        <v>0.09555</v>
+      </c>
+      <c r="C1798">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="D1798">
+        <v>0.09489</v>
+      </c>
+      <c r="E1798">
+        <v>0.09496</v>
+      </c>
+      <c r="F1798">
+        <v>10572035</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1799">
+        <v>0.09496</v>
+      </c>
+      <c r="C1799">
+        <v>0.09551999999999999</v>
+      </c>
+      <c r="D1799">
+        <v>0.09495000000000001</v>
+      </c>
+      <c r="E1799">
+        <v>0.09517</v>
+      </c>
+      <c r="F1799">
+        <v>9952840</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" s="2">
+        <v>45537.14583333334</v>
+      </c>
+      <c r="B1800">
+        <v>0.09517</v>
+      </c>
+      <c r="C1800">
+        <v>0.09532</v>
+      </c>
+      <c r="D1800">
+        <v>0.09468</v>
+      </c>
+      <c r="E1800">
+        <v>0.09522</v>
+      </c>
+      <c r="F1800">
+        <v>24386942</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1801">
+        <v>0.09521</v>
+      </c>
+      <c r="C1801">
+        <v>0.09537</v>
+      </c>
+      <c r="D1801">
+        <v>0.09475</v>
+      </c>
+      <c r="E1801">
+        <v>0.09482</v>
+      </c>
+      <c r="F1801">
+        <v>6820013</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6">
+      <c r="A1802" s="2">
+        <v>45537.1875</v>
+      </c>
+      <c r="B1802">
+        <v>0.09483</v>
+      </c>
+      <c r="C1802">
+        <v>0.09487</v>
+      </c>
+      <c r="D1802">
+        <v>0.0941</v>
+      </c>
+      <c r="E1802">
+        <v>0.09413000000000001</v>
+      </c>
+      <c r="F1802">
+        <v>10303364</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6">
+      <c r="A1803" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1803">
+        <v>0.09413000000000001</v>
+      </c>
+      <c r="C1803">
+        <v>0.09495000000000001</v>
+      </c>
+      <c r="D1803">
+        <v>0.09412</v>
+      </c>
+      <c r="E1803">
+        <v>0.0949</v>
+      </c>
+      <c r="F1803">
+        <v>6034958</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" s="2">
+        <v>45537.22916666666</v>
+      </c>
+      <c r="B1804">
+        <v>0.0949</v>
+      </c>
+      <c r="C1804">
+        <v>0.09571</v>
+      </c>
+      <c r="D1804">
+        <v>0.09461</v>
+      </c>
+      <c r="E1804">
+        <v>0.09525</v>
+      </c>
+      <c r="F1804">
+        <v>12239091</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1805">
+        <v>0.09526</v>
+      </c>
+      <c r="C1805">
+        <v>0.0956</v>
+      </c>
+      <c r="D1805">
+        <v>0.09511</v>
+      </c>
+      <c r="E1805">
+        <v>0.09511</v>
+      </c>
+      <c r="F1805">
+        <v>6628723</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="2">
+        <v>45537.27083333334</v>
+      </c>
+      <c r="B1806">
+        <v>0.09511</v>
+      </c>
+      <c r="C1806">
+        <v>0.0954</v>
+      </c>
+      <c r="D1806">
+        <v>0.09508</v>
+      </c>
+      <c r="E1806">
+        <v>0.09521</v>
+      </c>
+      <c r="F1806">
+        <v>4036357</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1807">
+        <v>0.09521</v>
+      </c>
+      <c r="C1807">
+        <v>0.09547</v>
+      </c>
+      <c r="D1807">
+        <v>0.09456000000000001</v>
+      </c>
+      <c r="E1807">
+        <v>0.09467</v>
+      </c>
+      <c r="F1807">
+        <v>7549761</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="2">
+        <v>45537.3125</v>
+      </c>
+      <c r="B1808">
+        <v>0.09465999999999999</v>
+      </c>
+      <c r="C1808">
+        <v>0.09495000000000001</v>
+      </c>
+      <c r="D1808">
+        <v>0.09408999999999999</v>
+      </c>
+      <c r="E1808">
+        <v>0.09453</v>
+      </c>
+      <c r="F1808">
+        <v>14924245</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1809">
+        <v>0.09452000000000001</v>
+      </c>
+      <c r="C1809">
+        <v>0.09599000000000001</v>
+      </c>
+      <c r="D1809">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="E1809">
+        <v>0.09594999999999999</v>
+      </c>
+      <c r="F1809">
+        <v>11561556</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" s="2">
+        <v>45537.35416666666</v>
+      </c>
+      <c r="B1810">
+        <v>0.09594</v>
+      </c>
+      <c r="C1810">
+        <v>0.09636</v>
+      </c>
+      <c r="D1810">
+        <v>0.09593</v>
+      </c>
+      <c r="E1810">
+        <v>0.09594999999999999</v>
+      </c>
+      <c r="F1810">
+        <v>15213043</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1811">
+        <v>0.09596</v>
+      </c>
+      <c r="C1811">
+        <v>0.09631000000000001</v>
+      </c>
+      <c r="D1811">
+        <v>0.09578</v>
+      </c>
+      <c r="E1811">
+        <v>0.09608</v>
+      </c>
+      <c r="F1811">
+        <v>5305901</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" s="2">
+        <v>45537.39583333334</v>
+      </c>
+      <c r="B1812">
+        <v>0.09608999999999999</v>
+      </c>
+      <c r="C1812">
+        <v>0.09759</v>
+      </c>
+      <c r="D1812">
+        <v>0.0959</v>
+      </c>
+      <c r="E1812">
+        <v>0.09739</v>
+      </c>
+      <c r="F1812">
+        <v>15975918</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1813">
+        <v>0.09737</v>
+      </c>
+      <c r="C1813">
+        <v>0.09785000000000001</v>
+      </c>
+      <c r="D1813">
+        <v>0.09711</v>
+      </c>
+      <c r="E1813">
+        <v>0.09779</v>
+      </c>
+      <c r="F1813">
+        <v>17106354</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="2">
+        <v>45537.4375</v>
+      </c>
+      <c r="B1814">
+        <v>0.09779</v>
+      </c>
+      <c r="C1814">
+        <v>0.09802</v>
+      </c>
+      <c r="D1814">
+        <v>0.09726</v>
+      </c>
+      <c r="E1814">
+        <v>0.09748</v>
+      </c>
+      <c r="F1814">
+        <v>8719740</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1815">
+        <v>0.09747</v>
+      </c>
+      <c r="C1815">
+        <v>0.09775</v>
+      </c>
+      <c r="D1815">
+        <v>0.09704</v>
+      </c>
+      <c r="E1815">
+        <v>0.09773</v>
+      </c>
+      <c r="F1815">
+        <v>9571473</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" s="2">
+        <v>45537.47916666666</v>
+      </c>
+      <c r="B1816">
+        <v>0.09772</v>
+      </c>
+      <c r="C1816">
+        <v>0.09776</v>
+      </c>
+      <c r="D1816">
+        <v>0.09721</v>
+      </c>
+      <c r="E1816">
+        <v>0.0973</v>
+      </c>
+      <c r="F1816">
+        <v>7379841</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6">
+      <c r="A1817" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1817">
+        <v>0.0973</v>
+      </c>
+      <c r="C1817">
+        <v>0.09754</v>
+      </c>
+      <c r="D1817">
+        <v>0.09712</v>
+      </c>
+      <c r="E1817">
+        <v>0.09733</v>
+      </c>
+      <c r="F1817">
+        <v>5330947</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6">
+      <c r="A1818" s="2">
+        <v>45537.52083333334</v>
+      </c>
+      <c r="B1818">
+        <v>0.09733</v>
+      </c>
+      <c r="C1818">
+        <v>0.09736</v>
+      </c>
+      <c r="D1818">
+        <v>0.09692000000000001</v>
+      </c>
+      <c r="E1818">
+        <v>0.09730999999999999</v>
+      </c>
+      <c r="F1818">
+        <v>4745813</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6">
+      <c r="A1819" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1819">
+        <v>0.0973</v>
+      </c>
+      <c r="C1819">
+        <v>0.09746</v>
+      </c>
+      <c r="D1819">
+        <v>0.09698</v>
+      </c>
+      <c r="E1819">
+        <v>0.09704</v>
+      </c>
+      <c r="F1819">
+        <v>4211175</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="2">
+        <v>45537.5625</v>
+      </c>
+      <c r="B1820">
+        <v>0.09704</v>
+      </c>
+      <c r="C1820">
+        <v>0.09716</v>
+      </c>
+      <c r="D1820">
+        <v>0.09665</v>
+      </c>
+      <c r="E1820">
+        <v>0.09669</v>
+      </c>
+      <c r="F1820">
+        <v>9991967</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1821">
+        <v>0.09669</v>
+      </c>
+      <c r="C1821">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="D1821">
+        <v>0.0961</v>
+      </c>
+      <c r="E1821">
+        <v>0.09707</v>
+      </c>
+      <c r="F1821">
+        <v>12623701</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6">
+      <c r="A1822" s="2">
+        <v>45537.60416666666</v>
+      </c>
+      <c r="B1822">
+        <v>0.09709</v>
+      </c>
+      <c r="C1822">
+        <v>0.09796000000000001</v>
+      </c>
+      <c r="D1822">
+        <v>0.09707</v>
+      </c>
+      <c r="E1822">
+        <v>0.09767000000000001</v>
+      </c>
+      <c r="F1822">
+        <v>18272040</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6">
+      <c r="A1823" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1823">
+        <v>0.09767000000000001</v>
+      </c>
+      <c r="C1823">
+        <v>0.09797</v>
+      </c>
+      <c r="D1823">
+        <v>0.09732</v>
+      </c>
+      <c r="E1823">
+        <v>0.09732</v>
+      </c>
+      <c r="F1823">
+        <v>8152503</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6">
+      <c r="A1824" s="2">
+        <v>45537.64583333334</v>
+      </c>
+      <c r="B1824">
+        <v>0.09733</v>
+      </c>
+      <c r="C1824">
+        <v>0.09775</v>
+      </c>
+      <c r="D1824">
+        <v>0.09730999999999999</v>
+      </c>
+      <c r="E1824">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="F1824">
+        <v>3958012</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6">
+      <c r="A1825" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1825">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="C1825">
+        <v>0.09780999999999999</v>
+      </c>
+      <c r="D1825">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="E1825">
+        <v>0.09741</v>
+      </c>
+      <c r="F1825">
+        <v>3968854</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6">
+      <c r="A1826" s="2">
+        <v>45537.6875</v>
+      </c>
+      <c r="B1826">
+        <v>0.0974</v>
+      </c>
+      <c r="C1826">
+        <v>0.09758</v>
+      </c>
+      <c r="D1826">
+        <v>0.09691</v>
+      </c>
+      <c r="E1826">
+        <v>0.09697</v>
+      </c>
+      <c r="F1826">
+        <v>6266960</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6">
+      <c r="A1827" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1827">
+        <v>0.09697</v>
+      </c>
+      <c r="C1827">
+        <v>0.09777</v>
+      </c>
+      <c r="D1827">
+        <v>0.09697</v>
+      </c>
+      <c r="E1827">
+        <v>0.09776</v>
+      </c>
+      <c r="F1827">
+        <v>2818772</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6">
+      <c r="A1828" s="2">
+        <v>45537.72916666666</v>
+      </c>
+      <c r="B1828">
+        <v>0.09777</v>
+      </c>
+      <c r="C1828">
+        <v>0.09789</v>
+      </c>
+      <c r="D1828">
+        <v>0.09736</v>
+      </c>
+      <c r="E1828">
+        <v>0.09785000000000001</v>
+      </c>
+      <c r="F1828">
+        <v>4432122</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6">
+      <c r="A1829" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1829">
+        <v>0.09786</v>
+      </c>
+      <c r="C1829">
+        <v>0.09809</v>
+      </c>
+      <c r="D1829">
+        <v>0.09765</v>
+      </c>
+      <c r="E1829">
+        <v>0.09793</v>
+      </c>
+      <c r="F1829">
+        <v>6033042</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6">
+      <c r="A1830" s="2">
+        <v>45537.77083333334</v>
+      </c>
+      <c r="B1830">
+        <v>0.09791999999999999</v>
+      </c>
+      <c r="C1830">
+        <v>0.09803000000000001</v>
+      </c>
+      <c r="D1830">
+        <v>0.09741</v>
+      </c>
+      <c r="E1830">
+        <v>0.09759</v>
+      </c>
+      <c r="F1830">
+        <v>6961864</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6">
+      <c r="A1831" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1831">
+        <v>0.09758</v>
+      </c>
+      <c r="C1831">
+        <v>0.09787</v>
+      </c>
+      <c r="D1831">
+        <v>0.09725</v>
+      </c>
+      <c r="E1831">
+        <v>0.09777</v>
+      </c>
+      <c r="F1831">
+        <v>6034359</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6">
+      <c r="A1832" s="2">
+        <v>45537.8125</v>
+      </c>
+      <c r="B1832">
+        <v>0.09777</v>
+      </c>
+      <c r="C1832">
+        <v>0.09803000000000001</v>
+      </c>
+      <c r="D1832">
+        <v>0.09766</v>
+      </c>
+      <c r="E1832">
+        <v>0.09783</v>
+      </c>
+      <c r="F1832">
+        <v>5947831</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6">
+      <c r="A1833" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1833">
+        <v>0.09784</v>
+      </c>
+      <c r="C1833">
+        <v>0.09822</v>
+      </c>
+      <c r="D1833">
+        <v>0.09761</v>
+      </c>
+      <c r="E1833">
+        <v>0.09812</v>
+      </c>
+      <c r="F1833">
+        <v>11287823</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6">
+      <c r="A1834" s="2">
+        <v>45537.85416666666</v>
+      </c>
+      <c r="B1834">
+        <v>0.09811</v>
+      </c>
+      <c r="C1834">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="D1834">
+        <v>0.09805</v>
+      </c>
+      <c r="E1834">
+        <v>0.09925</v>
+      </c>
+      <c r="F1834">
+        <v>21899173</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6">
+      <c r="A1835" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1835">
+        <v>0.09925</v>
+      </c>
+      <c r="C1835">
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="D1835">
+        <v>0.09905</v>
+      </c>
+      <c r="E1835">
+        <v>0.09938</v>
+      </c>
+      <c r="F1835">
+        <v>21834326</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6">
+      <c r="A1836" s="2">
+        <v>45537.89583333334</v>
+      </c>
+      <c r="B1836">
+        <v>0.09939000000000001</v>
+      </c>
+      <c r="C1836">
+        <v>0.09941999999999999</v>
+      </c>
+      <c r="D1836">
+        <v>0.09859</v>
+      </c>
+      <c r="E1836">
+        <v>0.09894</v>
+      </c>
+      <c r="F1836">
+        <v>8803621</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6">
+      <c r="A1837" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1837">
+        <v>0.09894</v>
+      </c>
+      <c r="C1837">
+        <v>0.09918</v>
+      </c>
+      <c r="D1837">
+        <v>0.09866999999999999</v>
+      </c>
+      <c r="E1837">
+        <v>0.09905</v>
+      </c>
+      <c r="F1837">
+        <v>6030306</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6">
+      <c r="A1838" s="2">
+        <v>45537.9375</v>
+      </c>
+      <c r="B1838">
+        <v>0.09904</v>
+      </c>
+      <c r="C1838">
+        <v>0.09922</v>
+      </c>
+      <c r="D1838">
+        <v>0.09879</v>
+      </c>
+      <c r="E1838">
+        <v>0.09909</v>
+      </c>
+      <c r="F1838">
+        <v>14793217</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6">
+      <c r="A1839" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1839">
+        <v>0.09909</v>
+      </c>
+      <c r="C1839">
+        <v>0.09921000000000001</v>
+      </c>
+      <c r="D1839">
+        <v>0.09886</v>
+      </c>
+      <c r="E1839">
+        <v>0.09911</v>
+      </c>
+      <c r="F1839">
+        <v>3200329</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6">
+      <c r="A1840" s="2">
+        <v>45537.97916666666</v>
+      </c>
+      <c r="B1840">
+        <v>0.09912</v>
+      </c>
+      <c r="C1840">
+        <v>0.09929</v>
+      </c>
+      <c r="D1840">
+        <v>0.09903000000000001</v>
+      </c>
+      <c r="E1840">
+        <v>0.09912</v>
+      </c>
+      <c r="F1840">
+        <v>2687824</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6">
+      <c r="A1841" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1841">
+        <v>0.09912</v>
+      </c>
+      <c r="C1841">
+        <v>0.09913</v>
+      </c>
+      <c r="D1841">
+        <v>0.09883</v>
+      </c>
+      <c r="E1841">
+        <v>0.09905</v>
+      </c>
+      <c r="F1841">
+        <v>4562970</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6">
+      <c r="A1842" s="2">
+        <v>45538.02083333334</v>
+      </c>
+      <c r="B1842">
+        <v>0.09905</v>
+      </c>
+      <c r="C1842">
+        <v>0.09945</v>
+      </c>
+      <c r="D1842">
+        <v>0.09881</v>
+      </c>
+      <c r="E1842">
+        <v>0.09941</v>
+      </c>
+      <c r="F1842">
+        <v>7792204</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6">
+      <c r="A1843" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1843">
+        <v>0.09941</v>
+      </c>
+      <c r="C1843">
+        <v>0.09974</v>
+      </c>
+      <c r="D1843">
+        <v>0.09933</v>
+      </c>
+      <c r="E1843">
+        <v>0.09947</v>
+      </c>
+      <c r="F1843">
+        <v>7624253</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6">
+      <c r="A1844" s="2">
+        <v>45538.0625</v>
+      </c>
+      <c r="B1844">
+        <v>0.09947</v>
+      </c>
+      <c r="C1844">
+        <v>0.09997</v>
+      </c>
+      <c r="D1844">
+        <v>0.09927</v>
+      </c>
+      <c r="E1844">
+        <v>0.09995</v>
+      </c>
+      <c r="F1844">
+        <v>6603425</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6">
+      <c r="A1845" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1845">
+        <v>0.09994</v>
+      </c>
+      <c r="C1845">
+        <v>0.10081</v>
+      </c>
+      <c r="D1845">
+        <v>0.09988</v>
+      </c>
+      <c r="E1845">
+        <v>0.10002</v>
+      </c>
+      <c r="F1845">
+        <v>30182006</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6">
+      <c r="A1846" s="2">
+        <v>45538.10416666666</v>
+      </c>
+      <c r="B1846">
+        <v>0.10002</v>
+      </c>
+      <c r="C1846">
+        <v>0.10048</v>
+      </c>
+      <c r="D1846">
+        <v>0.09977</v>
+      </c>
+      <c r="E1846">
+        <v>0.09977999999999999</v>
+      </c>
+      <c r="F1846">
+        <v>13644766</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6">
+      <c r="A1847" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1847">
+        <v>0.09977999999999999</v>
+      </c>
+      <c r="C1847">
+        <v>0.09995999999999999</v>
+      </c>
+      <c r="D1847">
+        <v>0.09963</v>
+      </c>
+      <c r="E1847">
+        <v>0.09973</v>
+      </c>
+      <c r="F1847">
+        <v>3717420</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6">
+      <c r="A1848" s="2">
+        <v>45538.14583333334</v>
+      </c>
+      <c r="B1848">
+        <v>0.09973</v>
+      </c>
+      <c r="C1848">
+        <v>0.09986</v>
+      </c>
+      <c r="D1848">
+        <v>0.09951</v>
+      </c>
+      <c r="E1848">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="F1848">
+        <v>2957433</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6">
+      <c r="A1849" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1849">
+        <v>0.09958</v>
+      </c>
+      <c r="C1849">
+        <v>0.09965</v>
+      </c>
+      <c r="D1849">
+        <v>0.09929</v>
+      </c>
+      <c r="E1849">
+        <v>0.09934</v>
+      </c>
+      <c r="F1849">
+        <v>4552079</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6">
+      <c r="A1850" s="2">
+        <v>45538.1875</v>
+      </c>
+      <c r="B1850">
+        <v>0.09933</v>
+      </c>
+      <c r="C1850">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="D1850">
+        <v>0.09909</v>
+      </c>
+      <c r="E1850">
+        <v>0.09921000000000001</v>
+      </c>
+      <c r="F1850">
+        <v>7218311</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6">
+      <c r="A1851" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1851">
+        <v>0.09921000000000001</v>
+      </c>
+      <c r="C1851">
+        <v>0.09966999999999999</v>
+      </c>
+      <c r="D1851">
+        <v>0.09901</v>
+      </c>
+      <c r="E1851">
+        <v>0.09966999999999999</v>
+      </c>
+      <c r="F1851">
+        <v>5185797</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6">
+      <c r="A1852" s="2">
+        <v>45538.22916666666</v>
+      </c>
+      <c r="B1852">
+        <v>0.09968</v>
+      </c>
+      <c r="C1852">
+        <v>0.09970999999999999</v>
+      </c>
+      <c r="D1852">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="E1852">
+        <v>0.09968</v>
+      </c>
+      <c r="F1852">
+        <v>3435432</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6">
+      <c r="A1853" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1853">
+        <v>0.09968</v>
+      </c>
+      <c r="C1853">
+        <v>0.09968</v>
+      </c>
+      <c r="D1853">
+        <v>0.09934</v>
+      </c>
+      <c r="E1853">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="F1853">
+        <v>6774647</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6">
+      <c r="A1854" s="2">
+        <v>45538.27083333334</v>
+      </c>
+      <c r="B1854">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="C1854">
+        <v>0.09972</v>
+      </c>
+      <c r="D1854">
+        <v>0.09929</v>
+      </c>
+      <c r="E1854">
+        <v>0.09931</v>
+      </c>
+      <c r="F1854">
+        <v>3069463</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6">
+      <c r="A1855" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1855">
+        <v>0.09931</v>
+      </c>
+      <c r="C1855">
+        <v>0.09954</v>
+      </c>
+      <c r="D1855">
+        <v>0.09923</v>
+      </c>
+      <c r="E1855">
+        <v>0.09934999999999999</v>
+      </c>
+      <c r="F1855">
+        <v>3095703</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6">
+      <c r="A1856" s="2">
+        <v>45538.3125</v>
+      </c>
+      <c r="B1856">
+        <v>0.09936</v>
+      </c>
+      <c r="C1856">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="D1856">
+        <v>0.09923</v>
+      </c>
+      <c r="E1856">
+        <v>0.09959</v>
+      </c>
+      <c r="F1856">
+        <v>6899374</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6">
+      <c r="A1857" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1857">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="C1857">
+        <v>0.09964000000000001</v>
+      </c>
+      <c r="D1857">
+        <v>0.09936</v>
+      </c>
+      <c r="E1857">
+        <v>0.09937</v>
+      </c>
+      <c r="F1857">
+        <v>2966390</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6">
+      <c r="A1858" s="2">
+        <v>45538.35416666666</v>
+      </c>
+      <c r="B1858">
+        <v>0.09936</v>
+      </c>
+      <c r="C1858">
+        <v>0.09937</v>
+      </c>
+      <c r="D1858">
+        <v>0.09859999999999999</v>
+      </c>
+      <c r="E1858">
+        <v>0.09886</v>
+      </c>
+      <c r="F1858">
+        <v>6549484</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6">
+      <c r="A1859" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1859">
+        <v>0.09884999999999999</v>
+      </c>
+      <c r="C1859">
+        <v>0.0992</v>
+      </c>
+      <c r="D1859">
+        <v>0.09884999999999999</v>
+      </c>
+      <c r="E1859">
+        <v>0.09898</v>
+      </c>
+      <c r="F1859">
+        <v>2759589</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6">
+      <c r="A1860" s="2">
+        <v>45538.39583333334</v>
+      </c>
+      <c r="B1860">
+        <v>0.09898999999999999</v>
+      </c>
+      <c r="C1860">
+        <v>0.09933</v>
+      </c>
+      <c r="D1860">
+        <v>0.09891999999999999</v>
+      </c>
+      <c r="E1860">
+        <v>0.09915</v>
+      </c>
+      <c r="F1860">
+        <v>2376789</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6">
+      <c r="A1861" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1861">
+        <v>0.09916</v>
+      </c>
+      <c r="C1861">
+        <v>0.09962</v>
+      </c>
+      <c r="D1861">
+        <v>0.09905</v>
+      </c>
+      <c r="E1861">
+        <v>0.09956</v>
+      </c>
+      <c r="F1861">
+        <v>2709122</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6">
+      <c r="A1862" s="2">
+        <v>45538.4375</v>
+      </c>
+      <c r="B1862">
+        <v>0.09955</v>
+      </c>
+      <c r="C1862">
+        <v>0.09955</v>
+      </c>
+      <c r="D1862">
+        <v>0.09905</v>
+      </c>
+      <c r="E1862">
+        <v>0.09934</v>
+      </c>
+      <c r="F1862">
+        <v>2606633</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6">
+      <c r="A1863" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1863">
+        <v>0.09934</v>
+      </c>
+      <c r="C1863">
+        <v>0.09952999999999999</v>
+      </c>
+      <c r="D1863">
+        <v>0.09921000000000001</v>
+      </c>
+      <c r="E1863">
+        <v>0.09952</v>
+      </c>
+      <c r="F1863">
+        <v>3270364</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6">
+      <c r="A1864" s="2">
+        <v>45538.47916666666</v>
+      </c>
+      <c r="B1864">
+        <v>0.09952999999999999</v>
+      </c>
+      <c r="C1864">
+        <v>0.0997</v>
+      </c>
+      <c r="D1864">
+        <v>0.09947</v>
+      </c>
+      <c r="E1864">
+        <v>0.09962</v>
+      </c>
+      <c r="F1864">
+        <v>3856302</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6">
+      <c r="A1865" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1865">
+        <v>0.09962</v>
+      </c>
+      <c r="C1865">
+        <v>0.09999</v>
+      </c>
+      <c r="D1865">
+        <v>0.09955</v>
+      </c>
+      <c r="E1865">
+        <v>0.0999</v>
+      </c>
+      <c r="F1865">
+        <v>3645663</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6">
+      <c r="A1866" s="2">
+        <v>45538.52083333334</v>
+      </c>
+      <c r="B1866">
+        <v>0.0999</v>
+      </c>
+      <c r="C1866">
+        <v>0.1005</v>
+      </c>
+      <c r="D1866">
+        <v>0.09989000000000001</v>
+      </c>
+      <c r="E1866">
+        <v>0.10014</v>
+      </c>
+      <c r="F1866">
+        <v>10135765</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6">
+      <c r="A1867" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1867">
+        <v>0.10015</v>
+      </c>
+      <c r="C1867">
+        <v>0.10047</v>
+      </c>
+      <c r="D1867">
+        <v>0.10011</v>
+      </c>
+      <c r="E1867">
+        <v>0.1002</v>
+      </c>
+      <c r="F1867">
+        <v>6582987</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6">
+      <c r="A1868" s="2">
+        <v>45538.5625</v>
+      </c>
+      <c r="B1868">
+        <v>0.1002</v>
+      </c>
+      <c r="C1868">
+        <v>0.10021</v>
+      </c>
+      <c r="D1868">
+        <v>0.09813</v>
+      </c>
+      <c r="E1868">
+        <v>0.09832</v>
+      </c>
+      <c r="F1868">
+        <v>35414377</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6">
+      <c r="A1869" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1869">
+        <v>0.09832</v>
+      </c>
+      <c r="C1869">
+        <v>0.09832</v>
+      </c>
+      <c r="D1869">
+        <v>0.09721</v>
+      </c>
+      <c r="E1869">
+        <v>0.09809</v>
+      </c>
+      <c r="F1869">
+        <v>31771576</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6">
+      <c r="A1870" s="2">
+        <v>45538.60416666666</v>
+      </c>
+      <c r="B1870">
+        <v>0.09808</v>
+      </c>
+      <c r="C1870">
+        <v>0.09819</v>
+      </c>
+      <c r="D1870">
+        <v>0.09730999999999999</v>
+      </c>
+      <c r="E1870">
+        <v>0.09737999999999999</v>
+      </c>
+      <c r="F1870">
+        <v>8661784</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6">
+      <c r="A1871" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1871">
+        <v>0.09737999999999999</v>
+      </c>
+      <c r="C1871">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="D1871">
+        <v>0.09729</v>
+      </c>
+      <c r="E1871">
+        <v>0.09748</v>
+      </c>
+      <c r="F1871">
+        <v>8555101</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6">
+      <c r="A1872" s="2">
+        <v>45538.64583333334</v>
+      </c>
+      <c r="B1872">
+        <v>0.09748</v>
+      </c>
+      <c r="C1872">
+        <v>0.0977</v>
+      </c>
+      <c r="D1872">
+        <v>0.09673</v>
+      </c>
+      <c r="E1872">
+        <v>0.09692000000000001</v>
+      </c>
+      <c r="F1872">
+        <v>11030366</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6">
+      <c r="A1873" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1873">
+        <v>0.0969</v>
+      </c>
+      <c r="C1873">
+        <v>0.0975</v>
+      </c>
+      <c r="D1873">
+        <v>0.09667000000000001</v>
+      </c>
+      <c r="E1873">
+        <v>0.09715</v>
+      </c>
+      <c r="F1873">
+        <v>9555357</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6">
+      <c r="A1874" s="2">
+        <v>45538.6875</v>
+      </c>
+      <c r="B1874">
+        <v>0.09715</v>
+      </c>
+      <c r="C1874">
+        <v>0.0977</v>
+      </c>
+      <c r="D1874">
+        <v>0.09707</v>
+      </c>
+      <c r="E1874">
+        <v>0.0975</v>
+      </c>
+      <c r="F1874">
+        <v>6932448</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6">
+      <c r="A1875" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1875">
+        <v>0.0975</v>
+      </c>
+      <c r="C1875">
+        <v>0.09861</v>
+      </c>
+      <c r="D1875">
+        <v>0.09746</v>
+      </c>
+      <c r="E1875">
+        <v>0.09843</v>
+      </c>
+      <c r="F1875">
+        <v>6644492</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6">
+      <c r="A1876" s="2">
+        <v>45538.72916666666</v>
+      </c>
+      <c r="B1876">
+        <v>0.09844</v>
+      </c>
+      <c r="C1876">
+        <v>0.09863</v>
+      </c>
+      <c r="D1876">
+        <v>0.0979</v>
+      </c>
+      <c r="E1876">
+        <v>0.0979</v>
+      </c>
+      <c r="F1876">
+        <v>4021455</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6">
+      <c r="A1877" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1877">
+        <v>0.09791</v>
+      </c>
+      <c r="C1877">
+        <v>0.09818</v>
+      </c>
+      <c r="D1877">
+        <v>0.09755999999999999</v>
+      </c>
+      <c r="E1877">
+        <v>0.09797</v>
+      </c>
+      <c r="F1877">
+        <v>8710322</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6">
+      <c r="A1878" s="2">
+        <v>45538.77083333334</v>
+      </c>
+      <c r="B1878">
+        <v>0.09797</v>
+      </c>
+      <c r="C1878">
+        <v>0.09827</v>
+      </c>
+      <c r="D1878">
+        <v>0.09787999999999999</v>
+      </c>
+      <c r="E1878">
+        <v>0.09791</v>
+      </c>
+      <c r="F1878">
+        <v>2624584</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6">
+      <c r="A1879" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1879">
+        <v>0.09791999999999999</v>
+      </c>
+      <c r="C1879">
+        <v>0.09848</v>
+      </c>
+      <c r="D1879">
+        <v>0.09786</v>
+      </c>
+      <c r="E1879">
+        <v>0.0979</v>
+      </c>
+      <c r="F1879">
+        <v>4659913</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6">
+      <c r="A1880" s="2">
+        <v>45538.8125</v>
+      </c>
+      <c r="B1880">
+        <v>0.09791</v>
+      </c>
+      <c r="C1880">
+        <v>0.09798</v>
+      </c>
+      <c r="D1880">
+        <v>0.09741</v>
+      </c>
+      <c r="E1880">
+        <v>0.09773</v>
+      </c>
+      <c r="F1880">
+        <v>4824149</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6">
+      <c r="A1881" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1881">
+        <v>0.09773</v>
+      </c>
+      <c r="C1881">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="D1881">
+        <v>0.0977</v>
+      </c>
+      <c r="E1881">
+        <v>0.09772</v>
+      </c>
+      <c r="F1881">
+        <v>5859467</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6">
+      <c r="A1882" s="2">
+        <v>45538.85416666666</v>
+      </c>
+      <c r="B1882">
+        <v>0.09773</v>
+      </c>
+      <c r="C1882">
+        <v>0.09812</v>
+      </c>
+      <c r="D1882">
+        <v>0.09762999999999999</v>
+      </c>
+      <c r="E1882">
+        <v>0.09801</v>
+      </c>
+      <c r="F1882">
+        <v>9553346</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6">
+      <c r="A1883" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1883">
+        <v>0.098</v>
+      </c>
+      <c r="C1883">
+        <v>0.098</v>
+      </c>
+      <c r="D1883">
+        <v>0.09739</v>
+      </c>
+      <c r="E1883">
+        <v>0.0974</v>
+      </c>
+      <c r="F1883">
+        <v>3776242</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6">
+      <c r="A1884" s="2">
+        <v>45538.89583333334</v>
+      </c>
+      <c r="B1884">
+        <v>0.09741</v>
+      </c>
+      <c r="C1884">
+        <v>0.09812</v>
+      </c>
+      <c r="D1884">
+        <v>0.0974</v>
+      </c>
+      <c r="E1884">
+        <v>0.0979</v>
+      </c>
+      <c r="F1884">
+        <v>7172461</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6">
+      <c r="A1885" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1885">
+        <v>0.09789</v>
+      </c>
+      <c r="C1885">
+        <v>0.098</v>
+      </c>
+      <c r="D1885">
+        <v>0.09757</v>
+      </c>
+      <c r="E1885">
+        <v>0.09772</v>
+      </c>
+      <c r="F1885">
+        <v>3892934</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6">
+      <c r="A1886" s="2">
+        <v>45538.9375</v>
+      </c>
+      <c r="B1886">
+        <v>0.09772</v>
+      </c>
+      <c r="C1886">
+        <v>0.09778000000000001</v>
+      </c>
+      <c r="D1886">
+        <v>0.09744999999999999</v>
+      </c>
+      <c r="E1886">
+        <v>0.09746</v>
+      </c>
+      <c r="F1886">
+        <v>1771969</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6">
+      <c r="A1887" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1887">
+        <v>0.09744999999999999</v>
+      </c>
+      <c r="C1887">
+        <v>0.09752</v>
+      </c>
+      <c r="D1887">
+        <v>0.09696</v>
+      </c>
+      <c r="E1887">
+        <v>0.09702</v>
+      </c>
+      <c r="F1887">
+        <v>3539905</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6">
+      <c r="A1888" s="2">
+        <v>45538.97916666666</v>
+      </c>
+      <c r="B1888">
+        <v>0.09702</v>
+      </c>
+      <c r="C1888">
+        <v>0.09716</v>
+      </c>
+      <c r="D1888">
+        <v>0.09639</v>
+      </c>
+      <c r="E1888">
+        <v>0.09676999999999999</v>
+      </c>
+      <c r="F1888">
+        <v>10172477</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6">
+      <c r="A1889" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1889">
+        <v>0.09678</v>
+      </c>
+      <c r="C1889">
+        <v>0.09744999999999999</v>
+      </c>
+      <c r="D1889">
+        <v>0.09667000000000001</v>
+      </c>
+      <c r="E1889">
+        <v>0.09723</v>
+      </c>
+      <c r="F1889">
+        <v>9197063</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6">
+      <c r="A1890" s="2">
+        <v>45539.02083333334</v>
+      </c>
+      <c r="B1890">
+        <v>0.09723</v>
+      </c>
+      <c r="C1890">
+        <v>0.0975</v>
+      </c>
+      <c r="D1890">
+        <v>0.09566</v>
+      </c>
+      <c r="E1890">
+        <v>0.09583</v>
+      </c>
+      <c r="F1890">
+        <v>15240041</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6">
+      <c r="A1891" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1891">
+        <v>0.09583999999999999</v>
+      </c>
+      <c r="C1891">
+        <v>0.09587</v>
+      </c>
+      <c r="D1891">
+        <v>0.09184</v>
+      </c>
+      <c r="E1891">
+        <v>0.09399</v>
+      </c>
+      <c r="F1891">
+        <v>133743680</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6">
+      <c r="A1892" s="2">
+        <v>45539.0625</v>
+      </c>
+      <c r="B1892">
+        <v>0.09399</v>
+      </c>
+      <c r="C1892">
+        <v>0.09512</v>
+      </c>
+      <c r="D1892">
+        <v>0.09393</v>
+      </c>
+      <c r="E1892">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="F1892">
+        <v>31432652</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6">
+      <c r="A1893" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1893">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="C1893">
+        <v>0.09528</v>
+      </c>
+      <c r="D1893">
+        <v>0.09444</v>
+      </c>
+      <c r="E1893">
+        <v>0.09496</v>
+      </c>
+      <c r="F1893">
+        <v>12125938</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6">
+      <c r="A1894" s="2">
+        <v>45539.10416666666</v>
+      </c>
+      <c r="B1894">
+        <v>0.09496</v>
+      </c>
+      <c r="C1894">
+        <v>0.09513000000000001</v>
+      </c>
+      <c r="D1894">
+        <v>0.09485</v>
+      </c>
+      <c r="E1894">
+        <v>0.09503</v>
+      </c>
+      <c r="F1894">
+        <v>9425546</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6">
+      <c r="A1895" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1895">
+        <v>0.09504</v>
+      </c>
+      <c r="C1895">
+        <v>0.09607</v>
+      </c>
+      <c r="D1895">
+        <v>0.09496</v>
+      </c>
+      <c r="E1895">
+        <v>0.09605</v>
+      </c>
+      <c r="F1895">
+        <v>23861103</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6">
+      <c r="A1896" s="2">
+        <v>45539.14583333334</v>
+      </c>
+      <c r="B1896">
+        <v>0.09605</v>
+      </c>
+      <c r="C1896">
+        <v>0.09607</v>
+      </c>
+      <c r="D1896">
+        <v>0.09569</v>
+      </c>
+      <c r="E1896">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="F1896">
+        <v>9015485</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6">
+      <c r="A1897" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1897">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="C1897">
+        <v>0.09587</v>
+      </c>
+      <c r="D1897">
+        <v>0.09533999999999999</v>
+      </c>
+      <c r="E1897">
+        <v>0.09535</v>
+      </c>
+      <c r="F1897">
+        <v>8814403</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6">
+      <c r="A1898" s="2">
+        <v>45539.1875</v>
+      </c>
+      <c r="B1898">
+        <v>0.09533999999999999</v>
+      </c>
+      <c r="C1898">
+        <v>0.09598</v>
+      </c>
+      <c r="D1898">
+        <v>0.09533999999999999</v>
+      </c>
+      <c r="E1898">
+        <v>0.09593</v>
+      </c>
+      <c r="F1898">
+        <v>6018708</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6">
+      <c r="A1899" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1899">
+        <v>0.09592000000000001</v>
+      </c>
+      <c r="C1899">
+        <v>0.09596</v>
+      </c>
+      <c r="D1899">
+        <v>0.0956</v>
+      </c>
+      <c r="E1899">
+        <v>0.09582</v>
+      </c>
+      <c r="F1899">
+        <v>6485325</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6">
+      <c r="A1900" s="2">
+        <v>45539.22916666666</v>
+      </c>
+      <c r="B1900">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="C1900">
+        <v>0.09583999999999999</v>
+      </c>
+      <c r="D1900">
+        <v>0.09449</v>
+      </c>
+      <c r="E1900">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="F1900">
+        <v>30874447</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6">
+      <c r="A1901" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1901">
+        <v>0.09474</v>
+      </c>
+      <c r="C1901">
+        <v>0.09562</v>
+      </c>
+      <c r="D1901">
+        <v>0.09474</v>
+      </c>
+      <c r="E1901">
+        <v>0.09551</v>
+      </c>
+      <c r="F1901">
+        <v>10639278</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6">
+      <c r="A1902" s="2">
+        <v>45539.27083333334</v>
+      </c>
+      <c r="B1902">
+        <v>0.09551</v>
+      </c>
+      <c r="C1902">
+        <v>0.09558999999999999</v>
+      </c>
+      <c r="D1902">
+        <v>0.0951</v>
+      </c>
+      <c r="E1902">
+        <v>0.09517</v>
+      </c>
+      <c r="F1902">
+        <v>11881026</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6">
+      <c r="A1903" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1903">
+        <v>0.09518</v>
+      </c>
+      <c r="C1903">
+        <v>0.09593</v>
+      </c>
+      <c r="D1903">
+        <v>0.0951</v>
+      </c>
+      <c r="E1903">
+        <v>0.09557</v>
+      </c>
+      <c r="F1903">
+        <v>9958561</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6">
+      <c r="A1904" s="2">
+        <v>45539.3125</v>
+      </c>
+      <c r="B1904">
+        <v>0.09557</v>
+      </c>
+      <c r="C1904">
+        <v>0.09676</v>
+      </c>
+      <c r="D1904">
+        <v>0.09553</v>
+      </c>
+      <c r="E1904">
+        <v>0.09636</v>
+      </c>
+      <c r="F1904">
+        <v>11307812</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6">
+      <c r="A1905" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1905">
+        <v>0.09637</v>
+      </c>
+      <c r="C1905">
+        <v>0.09687999999999999</v>
+      </c>
+      <c r="D1905">
+        <v>0.09623</v>
+      </c>
+      <c r="E1905">
+        <v>0.09687999999999999</v>
+      </c>
+      <c r="F1905">
+        <v>9473050</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6">
+      <c r="A1906" s="2">
+        <v>45539.35416666666</v>
+      </c>
+      <c r="B1906">
+        <v>0.09687</v>
+      </c>
+      <c r="C1906">
+        <v>0.09694</v>
+      </c>
+      <c r="D1906">
+        <v>0.0964</v>
+      </c>
+      <c r="E1906">
+        <v>0.09669</v>
+      </c>
+      <c r="F1906">
+        <v>4976791</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6">
+      <c r="A1907" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1907">
+        <v>0.09668</v>
+      </c>
+      <c r="C1907">
+        <v>0.09697</v>
+      </c>
+      <c r="D1907">
+        <v>0.09641</v>
+      </c>
+      <c r="E1907">
+        <v>0.09662999999999999</v>
+      </c>
+      <c r="F1907">
+        <v>6130648</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6">
+      <c r="A1908" s="2">
+        <v>45539.39583333334</v>
+      </c>
+      <c r="B1908">
+        <v>0.09662</v>
+      </c>
+      <c r="C1908">
+        <v>0.09674000000000001</v>
+      </c>
+      <c r="D1908">
+        <v>0.09622</v>
+      </c>
+      <c r="E1908">
+        <v>0.09628</v>
+      </c>
+      <c r="F1908">
+        <v>7066313</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6">
+      <c r="A1909" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1909">
+        <v>0.09626999999999999</v>
+      </c>
+      <c r="C1909">
+        <v>0.09641</v>
+      </c>
+      <c r="D1909">
+        <v>0.09571</v>
+      </c>
+      <c r="E1909">
+        <v>0.09607</v>
+      </c>
+      <c r="F1909">
+        <v>10954330</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6">
+      <c r="A1910" s="2">
+        <v>45539.4375</v>
+      </c>
+      <c r="B1910">
+        <v>0.09608</v>
+      </c>
+      <c r="C1910">
+        <v>0.09618</v>
+      </c>
+      <c r="D1910">
+        <v>0.09506000000000001</v>
+      </c>
+      <c r="E1910">
+        <v>0.09511</v>
+      </c>
+      <c r="F1910">
+        <v>8965458</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6">
+      <c r="A1911" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1911">
+        <v>0.09511</v>
+      </c>
+      <c r="C1911">
+        <v>0.09567000000000001</v>
+      </c>
+      <c r="D1911">
+        <v>0.09511</v>
+      </c>
+      <c r="E1911">
+        <v>0.09537</v>
+      </c>
+      <c r="F1911">
+        <v>9337614</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6">
+      <c r="A1912" s="2">
+        <v>45539.47916666666</v>
+      </c>
+      <c r="B1912">
+        <v>0.09537</v>
+      </c>
+      <c r="C1912">
+        <v>0.09579</v>
+      </c>
+      <c r="D1912">
+        <v>0.09537</v>
+      </c>
+      <c r="E1912">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="F1912">
+        <v>5311262</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6">
+      <c r="A1913" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1913">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="C1913">
+        <v>0.09583</v>
+      </c>
+      <c r="D1913">
+        <v>0.09511</v>
+      </c>
+      <c r="E1913">
+        <v>0.09555</v>
+      </c>
+      <c r="F1913">
+        <v>4927537</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6">
+      <c r="A1914" s="2">
+        <v>45539.52083333334</v>
+      </c>
+      <c r="B1914">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="C1914">
+        <v>0.09594</v>
+      </c>
+      <c r="D1914">
+        <v>0.09529</v>
+      </c>
+      <c r="E1914">
+        <v>0.09531000000000001</v>
+      </c>
+      <c r="F1914">
+        <v>5622673</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6">
+      <c r="A1915" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1915">
+        <v>0.09531000000000001</v>
+      </c>
+      <c r="C1915">
+        <v>0.09555</v>
+      </c>
+      <c r="D1915">
+        <v>0.09487</v>
+      </c>
+      <c r="E1915">
+        <v>0.09533</v>
+      </c>
+      <c r="F1915">
+        <v>9745691</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6">
+      <c r="A1916" s="2">
+        <v>45539.5625</v>
+      </c>
+      <c r="B1916">
+        <v>0.09533999999999999</v>
+      </c>
+      <c r="C1916">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="D1916">
+        <v>0.09514</v>
+      </c>
+      <c r="E1916">
+        <v>0.09575</v>
+      </c>
+      <c r="F1916">
+        <v>6613014</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6">
+      <c r="A1917" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1917">
+        <v>0.09576</v>
+      </c>
+      <c r="C1917">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="D1917">
+        <v>0.09533</v>
+      </c>
+      <c r="E1917">
+        <v>0.09583999999999999</v>
+      </c>
+      <c r="F1917">
+        <v>15658776</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6">
+      <c r="A1918" s="2">
+        <v>45539.60416666666</v>
+      </c>
+      <c r="B1918">
+        <v>0.09585</v>
+      </c>
+      <c r="C1918">
+        <v>0.09764</v>
+      </c>
+      <c r="D1918">
+        <v>0.09583</v>
+      </c>
+      <c r="E1918">
+        <v>0.09733</v>
+      </c>
+      <c r="F1918">
+        <v>27126571</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6">
+      <c r="A1919" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1919">
+        <v>0.09734</v>
+      </c>
+      <c r="C1919">
+        <v>0.09777</v>
+      </c>
+      <c r="D1919">
+        <v>0.097</v>
+      </c>
+      <c r="E1919">
+        <v>0.09727</v>
+      </c>
+      <c r="F1919">
+        <v>31705252</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6">
+      <c r="A1920" s="2">
+        <v>45539.64583333334</v>
+      </c>
+      <c r="B1920">
+        <v>0.09726</v>
+      </c>
+      <c r="C1920">
+        <v>0.0988</v>
+      </c>
+      <c r="D1920">
+        <v>0.09694</v>
+      </c>
+      <c r="E1920">
+        <v>0.09854</v>
+      </c>
+      <c r="F1920">
+        <v>35033866</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6">
+      <c r="A1921" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1921">
+        <v>0.09853000000000001</v>
+      </c>
+      <c r="C1921">
+        <v>0.09931</v>
+      </c>
+      <c r="D1921">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="E1921">
+        <v>0.09915</v>
+      </c>
+      <c r="F1921">
+        <v>29367170</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6">
+      <c r="A1922" s="2">
+        <v>45539.6875</v>
+      </c>
+      <c r="B1922">
+        <v>0.09909</v>
+      </c>
+      <c r="C1922">
+        <v>0.09951</v>
+      </c>
+      <c r="D1922">
+        <v>0.09855</v>
+      </c>
+      <c r="E1922">
+        <v>0.0992</v>
+      </c>
+      <c r="F1922">
+        <v>21136362</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6">
+      <c r="A1923" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1923">
+        <v>0.0992</v>
+      </c>
+      <c r="C1923">
+        <v>0.09925</v>
+      </c>
+      <c r="D1923">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="E1923">
+        <v>0.0987</v>
+      </c>
+      <c r="F1923">
+        <v>17370252</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6">
+      <c r="A1924" s="2">
+        <v>45539.72916666666</v>
+      </c>
+      <c r="B1924">
+        <v>0.0987</v>
+      </c>
+      <c r="C1924">
+        <v>0.0989</v>
+      </c>
+      <c r="D1924">
+        <v>0.09828000000000001</v>
+      </c>
+      <c r="E1924">
+        <v>0.09829</v>
+      </c>
+      <c r="F1924">
+        <v>10013035</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6">
+      <c r="A1925" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1925">
+        <v>0.09829</v>
+      </c>
+      <c r="C1925">
+        <v>0.09855</v>
+      </c>
+      <c r="D1925">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="E1925">
+        <v>0.09822</v>
+      </c>
+      <c r="F1925">
+        <v>5010124</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6">
+      <c r="A1926" s="2">
+        <v>45539.77083333334</v>
+      </c>
+      <c r="B1926">
+        <v>0.09822</v>
+      </c>
+      <c r="C1926">
+        <v>0.09847</v>
+      </c>
+      <c r="D1926">
+        <v>0.09759</v>
+      </c>
+      <c r="E1926">
+        <v>0.09769</v>
+      </c>
+      <c r="F1926">
+        <v>3853546</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6">
+      <c r="A1927" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1927">
+        <v>0.09768</v>
+      </c>
+      <c r="C1927">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="D1927">
+        <v>0.09767000000000001</v>
+      </c>
+      <c r="E1927">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="F1927">
+        <v>3656350</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6">
+      <c r="A1928" s="2">
+        <v>45539.8125</v>
+      </c>
+      <c r="B1928">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="C1928">
+        <v>0.09816999999999999</v>
+      </c>
+      <c r="D1928">
+        <v>0.09785000000000001</v>
+      </c>
+      <c r="E1928">
+        <v>0.09797</v>
+      </c>
+      <c r="F1928">
+        <v>1273625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
